--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.528285</v>
+        <v>43.96295866666666</v>
       </c>
       <c r="H2">
-        <v>124.584855</v>
+        <v>131.888876</v>
       </c>
       <c r="I2">
-        <v>0.137866712381124</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="J2">
-        <v>0.145939792231724</v>
+        <v>0.1297146081693155</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.204407</v>
+        <v>0.8285839999999999</v>
       </c>
       <c r="N2">
-        <v>3.613221</v>
+        <v>2.485752</v>
       </c>
       <c r="O2">
-        <v>0.2602590387845083</v>
+        <v>0.2755321343422998</v>
       </c>
       <c r="P2">
-        <v>0.3020685960588353</v>
+        <v>0.2879647790657681</v>
       </c>
       <c r="Q2">
-        <v>50.01695715199501</v>
+        <v>36.42700414386132</v>
       </c>
       <c r="R2">
-        <v>450.152614367955</v>
+        <v>327.8430372947519</v>
       </c>
       <c r="S2">
-        <v>0.03588105804469159</v>
+        <v>0.03289367333466796</v>
       </c>
       <c r="T2">
-        <v>0.04408382814855498</v>
+        <v>0.0373532384830796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.528285</v>
+        <v>43.96295866666666</v>
       </c>
       <c r="H3">
-        <v>124.584855</v>
+        <v>131.888876</v>
       </c>
       <c r="I3">
-        <v>0.137866712381124</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="J3">
-        <v>0.145939792231724</v>
+        <v>0.1297146081693155</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.295389</v>
       </c>
       <c r="O3">
-        <v>0.165336062968895</v>
+        <v>0.2544314277191922</v>
       </c>
       <c r="P3">
-        <v>0.1918966298045135</v>
+        <v>0.2659119599441113</v>
       </c>
       <c r="Q3">
-        <v>31.77452285928834</v>
+        <v>33.63736391030711</v>
       </c>
       <c r="R3">
-        <v>285.970705733595</v>
+        <v>302.736275192764</v>
       </c>
       <c r="S3">
-        <v>0.02279433943956005</v>
+        <v>0.0303746214191883</v>
       </c>
       <c r="T3">
-        <v>0.02800535428363875</v>
+        <v>0.0344926656916851</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.528285</v>
+        <v>43.96295866666666</v>
       </c>
       <c r="H4">
-        <v>124.584855</v>
+        <v>131.888876</v>
       </c>
       <c r="I4">
-        <v>0.137866712381124</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="J4">
-        <v>0.145939792231724</v>
+        <v>0.1297146081693155</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4684373333333333</v>
+        <v>0.5028976666666667</v>
       </c>
       <c r="N4">
-        <v>1.405312</v>
+        <v>1.508693</v>
       </c>
       <c r="O4">
-        <v>0.1012241294712764</v>
+        <v>0.1672304406703836</v>
       </c>
       <c r="P4">
-        <v>0.1174853746462323</v>
+        <v>0.1747762634498819</v>
       </c>
       <c r="Q4">
-        <v>19.45339908330667</v>
+        <v>22.10886933322977</v>
       </c>
       <c r="R4">
-        <v>175.08059174976</v>
+        <v>198.979823999068</v>
       </c>
       <c r="S4">
-        <v>0.01395543794384612</v>
+        <v>0.01996436277806483</v>
       </c>
       <c r="T4">
-        <v>0.01714579116613739</v>
+        <v>0.02267103453069848</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.528285</v>
+        <v>43.96295866666666</v>
       </c>
       <c r="H5">
-        <v>124.584855</v>
+        <v>131.888876</v>
       </c>
       <c r="I5">
-        <v>0.137866712381124</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="J5">
-        <v>0.145939792231724</v>
+        <v>0.1297146081693155</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.921581</v>
+        <v>0.389502</v>
       </c>
       <c r="N5">
-        <v>3.843162</v>
+        <v>0.779004</v>
       </c>
       <c r="O5">
-        <v>0.4152324123046232</v>
+        <v>0.1295225558188361</v>
       </c>
       <c r="P5">
-        <v>0.3212918749688065</v>
+        <v>0.09024460797028409</v>
       </c>
       <c r="Q5">
-        <v>79.79996341858502</v>
+        <v>17.123660326584</v>
       </c>
       <c r="R5">
-        <v>478.7997805115101</v>
+        <v>102.741961959504</v>
       </c>
       <c r="S5">
-        <v>0.05724672755852176</v>
+        <v>0.01546270692072239</v>
       </c>
       <c r="T5">
-        <v>0.04688926947868866</v>
+        <v>0.01170604396225888</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>41.528285</v>
+        <v>43.96295866666666</v>
       </c>
       <c r="H6">
-        <v>124.584855</v>
+        <v>131.888876</v>
       </c>
       <c r="I6">
-        <v>0.137866712381124</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="J6">
-        <v>0.145939792231724</v>
+        <v>0.1297146081693155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.268169</v>
+        <v>0.5211003333333333</v>
       </c>
       <c r="N6">
-        <v>0.804507</v>
+        <v>1.563301</v>
       </c>
       <c r="O6">
-        <v>0.05794835647069703</v>
+        <v>0.1732834414492885</v>
       </c>
       <c r="P6">
-        <v>0.06725752452161254</v>
+        <v>0.1811023895699548</v>
       </c>
       <c r="Q6">
-        <v>11.136598660165</v>
+        <v>22.90911241551955</v>
       </c>
       <c r="R6">
-        <v>100.229387941485</v>
+        <v>206.1820117396759</v>
       </c>
       <c r="S6">
-        <v>0.007989149394504432</v>
+        <v>0.02068698422761392</v>
       </c>
       <c r="T6">
-        <v>0.009815549154704216</v>
+        <v>0.02349162550159341</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>216.066395</v>
       </c>
       <c r="I7">
-        <v>0.2391010009578718</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="J7">
-        <v>0.2531020708300187</v>
+        <v>0.212504409894141</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.204407</v>
+        <v>0.8285839999999999</v>
       </c>
       <c r="N7">
-        <v>3.613221</v>
+        <v>2.485752</v>
       </c>
       <c r="O7">
-        <v>0.2602590387845083</v>
+        <v>0.2755321343422998</v>
       </c>
       <c r="P7">
-        <v>0.3020685960588353</v>
+        <v>0.2879647790657681</v>
       </c>
       <c r="Q7">
-        <v>86.743959534255</v>
+        <v>59.67638594489333</v>
       </c>
       <c r="R7">
-        <v>780.6956358082949</v>
+        <v>537.08747350404</v>
       </c>
       <c r="S7">
-        <v>0.06222819668170951</v>
+        <v>0.05388792164495613</v>
       </c>
       <c r="T7">
-        <v>0.07645418719520763</v>
+        <v>0.06119378544566774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>216.066395</v>
       </c>
       <c r="I8">
-        <v>0.2391010009578718</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="J8">
-        <v>0.2531020708300187</v>
+        <v>0.212504409894141</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.295389</v>
       </c>
       <c r="O8">
-        <v>0.165336062968895</v>
+        <v>0.2544314277191922</v>
       </c>
       <c r="P8">
-        <v>0.1918966298045135</v>
+        <v>0.2659119599441113</v>
       </c>
       <c r="Q8">
         <v>55.10626959473944</v>
@@ -948,10 +948,10 @@
         <v>495.956426352655</v>
       </c>
       <c r="S8">
-        <v>0.03953201815029651</v>
+        <v>0.04976109546595728</v>
       </c>
       <c r="T8">
-        <v>0.04856943438882384</v>
+        <v>0.05650746413171784</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>216.066395</v>
       </c>
       <c r="I9">
-        <v>0.2391010009578718</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="J9">
-        <v>0.2531020708300187</v>
+        <v>0.212504409894141</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4684373333333333</v>
+        <v>0.5028976666666667</v>
       </c>
       <c r="N9">
-        <v>1.405312</v>
+        <v>1.508693</v>
       </c>
       <c r="O9">
-        <v>0.1012241294712764</v>
+        <v>0.1672304406703836</v>
       </c>
       <c r="P9">
-        <v>0.1174853746462323</v>
+        <v>0.1747762634498819</v>
       </c>
       <c r="Q9">
-        <v>33.73785529891556</v>
+        <v>36.21976196352611</v>
       </c>
       <c r="R9">
-        <v>303.64069769024</v>
+        <v>325.977857671735</v>
       </c>
       <c r="S9">
-        <v>0.0242027906776714</v>
+        <v>0.03270653314179926</v>
       </c>
       <c r="T9">
-        <v>0.02973579161520196</v>
+        <v>0.03714072672792009</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>216.066395</v>
       </c>
       <c r="I10">
-        <v>0.2391010009578718</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="J10">
-        <v>0.2531020708300187</v>
+        <v>0.212504409894141</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.921581</v>
+        <v>0.389502</v>
       </c>
       <c r="N10">
-        <v>3.843162</v>
+        <v>0.779004</v>
       </c>
       <c r="O10">
-        <v>0.4152324123046232</v>
+        <v>0.1295225558188361</v>
       </c>
       <c r="P10">
-        <v>0.3212918749688065</v>
+        <v>0.09024460797028409</v>
       </c>
       <c r="Q10">
-        <v>138.396359790165</v>
+        <v>28.05276432843</v>
       </c>
       <c r="R10">
-        <v>830.3781587409901</v>
+        <v>168.31658597058</v>
       </c>
       <c r="S10">
-        <v>0.09928248541218712</v>
+        <v>0.02533171441465646</v>
       </c>
       <c r="T10">
-        <v>0.08131963889546436</v>
+        <v>0.01917737716285332</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>216.066395</v>
       </c>
       <c r="I11">
-        <v>0.2391010009578718</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="J11">
-        <v>0.2531020708300187</v>
+        <v>0.212504409894141</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.268169</v>
+        <v>0.5211003333333333</v>
       </c>
       <c r="N11">
-        <v>0.804507</v>
+        <v>1.563301</v>
       </c>
       <c r="O11">
-        <v>0.05794835647069703</v>
+        <v>0.1732834414492885</v>
       </c>
       <c r="P11">
-        <v>0.06725752452161254</v>
+        <v>0.1811023895699548</v>
       </c>
       <c r="Q11">
-        <v>19.31410302691833</v>
+        <v>37.53075681887722</v>
       </c>
       <c r="R11">
-        <v>173.826927242265</v>
+        <v>337.776811369895</v>
       </c>
       <c r="S11">
-        <v>0.01385551003600723</v>
+        <v>0.03389036468460312</v>
       </c>
       <c r="T11">
-        <v>0.0170230187353209</v>
+        <v>0.03848505642598209</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>65.33487700000001</v>
+        <v>75.27587666666666</v>
       </c>
       <c r="H12">
-        <v>196.004631</v>
+        <v>225.82763</v>
       </c>
       <c r="I12">
-        <v>0.2169004738773853</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="J12">
-        <v>0.2296015444621718</v>
+        <v>0.2221047250357578</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.204407</v>
+        <v>0.8285839999999999</v>
       </c>
       <c r="N12">
-        <v>3.613221</v>
+        <v>2.485752</v>
       </c>
       <c r="O12">
-        <v>0.2602590387845083</v>
+        <v>0.2755321343422998</v>
       </c>
       <c r="P12">
-        <v>0.3020685960588353</v>
+        <v>0.2879647790657681</v>
       </c>
       <c r="Q12">
-        <v>78.68978320293901</v>
+        <v>62.37238699197332</v>
       </c>
       <c r="R12">
-        <v>708.208048826451</v>
+        <v>561.3514829277599</v>
       </c>
       <c r="S12">
-        <v>0.05645030884323264</v>
+        <v>0.05632241714731319</v>
       </c>
       <c r="T12">
-        <v>0.06935541618862849</v>
+        <v>0.06395833807438515</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>65.33487700000001</v>
+        <v>75.27587666666666</v>
       </c>
       <c r="H13">
-        <v>196.004631</v>
+        <v>225.82763</v>
       </c>
       <c r="I13">
-        <v>0.2169004738773853</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="J13">
-        <v>0.2296015444621718</v>
+        <v>0.2221047250357578</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.295389</v>
       </c>
       <c r="O13">
-        <v>0.165336062968895</v>
+        <v>0.2544314277191922</v>
       </c>
       <c r="P13">
-        <v>0.1918966298045135</v>
+        <v>0.2659119599441113</v>
       </c>
       <c r="Q13">
-        <v>49.98965266071767</v>
+        <v>57.59580642200778</v>
       </c>
       <c r="R13">
-        <v>449.9068739464591</v>
+        <v>518.36225779807</v>
       </c>
       <c r="S13">
-        <v>0.03586147040697454</v>
+        <v>0.05200915327569045</v>
       </c>
       <c r="T13">
-        <v>0.04405976258020192</v>
+        <v>0.05906030274710626</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>65.33487700000001</v>
+        <v>75.27587666666666</v>
       </c>
       <c r="H14">
-        <v>196.004631</v>
+        <v>225.82763</v>
       </c>
       <c r="I14">
-        <v>0.2169004738773853</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="J14">
-        <v>0.2296015444621718</v>
+        <v>0.2221047250357578</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4684373333333333</v>
+        <v>0.5028976666666667</v>
       </c>
       <c r="N14">
-        <v>1.405312</v>
+        <v>1.508693</v>
       </c>
       <c r="O14">
-        <v>0.1012241294712764</v>
+        <v>0.1672304406703836</v>
       </c>
       <c r="P14">
-        <v>0.1174853746462323</v>
+        <v>0.1747762634498819</v>
       </c>
       <c r="Q14">
-        <v>30.60529555554134</v>
+        <v>37.85606273195445</v>
       </c>
       <c r="R14">
-        <v>275.447659999872</v>
+        <v>340.70456458759</v>
       </c>
       <c r="S14">
-        <v>0.02195556165014566</v>
+        <v>0.03418411671527626</v>
       </c>
       <c r="T14">
-        <v>0.02697482347049181</v>
+        <v>0.03881863393631318</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>65.33487700000001</v>
+        <v>75.27587666666666</v>
       </c>
       <c r="H15">
-        <v>196.004631</v>
+        <v>225.82763</v>
       </c>
       <c r="I15">
-        <v>0.2169004738773853</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="J15">
-        <v>0.2296015444621718</v>
+        <v>0.2221047250357578</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.921581</v>
+        <v>0.389502</v>
       </c>
       <c r="N15">
-        <v>3.843162</v>
+        <v>0.779004</v>
       </c>
       <c r="O15">
-        <v>0.4152324123046232</v>
+        <v>0.1295225558188361</v>
       </c>
       <c r="P15">
-        <v>0.3212918749688065</v>
+        <v>0.09024460797028409</v>
       </c>
       <c r="Q15">
-        <v>125.546258280537</v>
+        <v>29.32010451342</v>
       </c>
       <c r="R15">
-        <v>753.2775496832221</v>
+        <v>175.92062708052</v>
       </c>
       <c r="S15">
-        <v>0.09006410699812259</v>
+        <v>0.02647612568395333</v>
       </c>
       <c r="T15">
-        <v>0.07376911071598496</v>
+        <v>0.0200437538391997</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>65.33487700000001</v>
+        <v>75.27587666666666</v>
       </c>
       <c r="H16">
-        <v>196.004631</v>
+        <v>225.82763</v>
       </c>
       <c r="I16">
-        <v>0.2169004738773853</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="J16">
-        <v>0.2296015444621718</v>
+        <v>0.2221047250357578</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.268169</v>
+        <v>0.5211003333333333</v>
       </c>
       <c r="N16">
-        <v>0.804507</v>
+        <v>1.563301</v>
       </c>
       <c r="O16">
-        <v>0.05794835647069703</v>
+        <v>0.1732834414492885</v>
       </c>
       <c r="P16">
-        <v>0.06725752452161254</v>
+        <v>0.1811023895699548</v>
       </c>
       <c r="Q16">
-        <v>17.520788630213</v>
+        <v>39.22628442295888</v>
       </c>
       <c r="R16">
-        <v>157.687097671917</v>
+        <v>353.03655980663</v>
       </c>
       <c r="S16">
-        <v>0.01256902597890983</v>
+        <v>0.03542143023471845</v>
       </c>
       <c r="T16">
-        <v>0.01544243150686463</v>
+        <v>0.0402236964387535</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>49.988644</v>
+        <v>87.99833699999999</v>
       </c>
       <c r="H17">
-        <v>99.977288</v>
+        <v>175.996674</v>
       </c>
       <c r="I17">
-        <v>0.1659536386987904</v>
+        <v>0.2389613545046087</v>
       </c>
       <c r="J17">
-        <v>0.1171142723456333</v>
+        <v>0.1730952624618072</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.204407</v>
+        <v>0.8285839999999999</v>
       </c>
       <c r="N17">
-        <v>3.613221</v>
+        <v>2.485752</v>
       </c>
       <c r="O17">
-        <v>0.2602590387845083</v>
+        <v>0.2755321343422998</v>
       </c>
       <c r="P17">
-        <v>0.3020685960588353</v>
+        <v>0.2879647790657681</v>
       </c>
       <c r="Q17">
-        <v>60.206672754108</v>
+        <v>72.91401406480799</v>
       </c>
       <c r="R17">
-        <v>361.240036524648</v>
+        <v>437.4840843888479</v>
       </c>
       <c r="S17">
-        <v>0.04319093449053878</v>
+        <v>0.06584153203198179</v>
       </c>
       <c r="T17">
-        <v>0.03537654382589752</v>
+        <v>0.04984533901214545</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>49.988644</v>
+        <v>87.99833699999999</v>
       </c>
       <c r="H18">
-        <v>99.977288</v>
+        <v>175.996674</v>
       </c>
       <c r="I18">
-        <v>0.1659536386987904</v>
+        <v>0.2389613545046087</v>
       </c>
       <c r="J18">
-        <v>0.1171142723456333</v>
+        <v>0.1730952624618072</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.295389</v>
       </c>
       <c r="O18">
-        <v>0.165336062968895</v>
+        <v>0.2544314277191922</v>
       </c>
       <c r="P18">
-        <v>0.1918966298045135</v>
+        <v>0.2659119599441113</v>
       </c>
       <c r="Q18">
-        <v>38.24779452083867</v>
+        <v>67.33013825603099</v>
       </c>
       <c r="R18">
-        <v>229.486767125032</v>
+        <v>403.980829536186</v>
       </c>
       <c r="S18">
-        <v>0.02743812125782047</v>
+        <v>0.06079927859631962</v>
       </c>
       <c r="T18">
-        <v>0.02247383416513496</v>
+        <v>0.04602810049825951</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>49.988644</v>
+        <v>87.99833699999999</v>
       </c>
       <c r="H19">
-        <v>99.977288</v>
+        <v>175.996674</v>
       </c>
       <c r="I19">
-        <v>0.1659536386987904</v>
+        <v>0.2389613545046087</v>
       </c>
       <c r="J19">
-        <v>0.1171142723456333</v>
+        <v>0.1730952624618072</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4684373333333333</v>
+        <v>0.5028976666666667</v>
       </c>
       <c r="N19">
-        <v>1.405312</v>
+        <v>1.508693</v>
       </c>
       <c r="O19">
-        <v>0.1012241294712764</v>
+        <v>0.1672304406703836</v>
       </c>
       <c r="P19">
-        <v>0.1174853746462323</v>
+        <v>0.1747762634498819</v>
       </c>
       <c r="Q19">
-        <v>23.41654709230933</v>
+        <v>44.254158347847</v>
       </c>
       <c r="R19">
-        <v>140.499282553856</v>
+        <v>265.524950087082</v>
       </c>
       <c r="S19">
-        <v>0.01679851260987579</v>
+        <v>0.03996161261699747</v>
       </c>
       <c r="T19">
-        <v>0.0137592141629476</v>
+        <v>0.03025294319395128</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>49.988644</v>
+        <v>87.99833699999999</v>
       </c>
       <c r="H20">
-        <v>99.977288</v>
+        <v>175.996674</v>
       </c>
       <c r="I20">
-        <v>0.1659536386987904</v>
+        <v>0.2389613545046087</v>
       </c>
       <c r="J20">
-        <v>0.1171142723456333</v>
+        <v>0.1730952624618072</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.921581</v>
+        <v>0.389502</v>
       </c>
       <c r="N20">
-        <v>3.843162</v>
+        <v>0.779004</v>
       </c>
       <c r="O20">
-        <v>0.4152324123046232</v>
+        <v>0.1295225558188361</v>
       </c>
       <c r="P20">
-        <v>0.3212918749688065</v>
+        <v>0.09024460797028409</v>
       </c>
       <c r="Q20">
-        <v>96.05722852616401</v>
+        <v>34.275528258174</v>
       </c>
       <c r="R20">
-        <v>384.228914104656</v>
+        <v>137.102113032696</v>
       </c>
       <c r="S20">
-        <v>0.06890932972762862</v>
+        <v>0.03095088537736786</v>
       </c>
       <c r="T20">
-        <v>0.03762786414753595</v>
+        <v>0.01562091410237923</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>49.988644</v>
+        <v>87.99833699999999</v>
       </c>
       <c r="H21">
-        <v>99.977288</v>
+        <v>175.996674</v>
       </c>
       <c r="I21">
-        <v>0.1659536386987904</v>
+        <v>0.2389613545046087</v>
       </c>
       <c r="J21">
-        <v>0.1171142723456333</v>
+        <v>0.1730952624618072</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.268169</v>
+        <v>0.5211003333333333</v>
       </c>
       <c r="N21">
-        <v>0.804507</v>
+        <v>1.563301</v>
       </c>
       <c r="O21">
-        <v>0.05794835647069703</v>
+        <v>0.1732834414492885</v>
       </c>
       <c r="P21">
-        <v>0.06725752452161254</v>
+        <v>0.1811023895699548</v>
       </c>
       <c r="Q21">
-        <v>13.405404672836</v>
+        <v>45.85596274347899</v>
       </c>
       <c r="R21">
-        <v>80.432428037016</v>
+        <v>275.135776460874</v>
       </c>
       <c r="S21">
-        <v>0.009616740612926769</v>
+        <v>0.04140804588194203</v>
       </c>
       <c r="T21">
-        <v>0.007876816044117239</v>
+        <v>0.03134796565507179</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>72.34659833333335</v>
+        <v>88.99412</v>
       </c>
       <c r="H22">
-        <v>217.039795</v>
+        <v>266.98236</v>
       </c>
       <c r="I22">
-        <v>0.2401781740848285</v>
+        <v>0.24166542440621</v>
       </c>
       <c r="J22">
-        <v>0.2542423201304522</v>
+        <v>0.2625809944389785</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.204407</v>
+        <v>0.8285839999999999</v>
       </c>
       <c r="N22">
-        <v>3.613221</v>
+        <v>2.485752</v>
       </c>
       <c r="O22">
-        <v>0.2602590387845083</v>
+        <v>0.2755321343422998</v>
       </c>
       <c r="P22">
-        <v>0.3020685960588353</v>
+        <v>0.2879647790657681</v>
       </c>
       <c r="Q22">
-        <v>87.13474945885501</v>
+        <v>73.73910392607999</v>
       </c>
       <c r="R22">
-        <v>784.212745129695</v>
+        <v>663.6519353347198</v>
       </c>
       <c r="S22">
-        <v>0.06250854072433576</v>
+        <v>0.06658659018338076</v>
       </c>
       <c r="T22">
-        <v>0.07679862070054666</v>
+        <v>0.07561407805049011</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>72.34659833333335</v>
+        <v>88.99412</v>
       </c>
       <c r="H23">
-        <v>217.039795</v>
+        <v>266.98236</v>
       </c>
       <c r="I23">
-        <v>0.2401781740848285</v>
+        <v>0.24166542440621</v>
       </c>
       <c r="J23">
-        <v>0.2542423201304522</v>
+        <v>0.2625809944389785</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.295389</v>
       </c>
       <c r="O23">
-        <v>0.165336062968895</v>
+        <v>0.2544314277191922</v>
       </c>
       <c r="P23">
-        <v>0.1918966298045135</v>
+        <v>0.2659119599441113</v>
       </c>
       <c r="Q23">
-        <v>55.35452866725057</v>
+        <v>68.09204137089333</v>
       </c>
       <c r="R23">
-        <v>498.1907580052551</v>
+        <v>612.8283723380399</v>
       </c>
       <c r="S23">
-        <v>0.03971011371424343</v>
+        <v>0.06148727896203653</v>
       </c>
       <c r="T23">
-        <v>0.048788244386714</v>
+        <v>0.06982342687534254</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>72.34659833333335</v>
+        <v>88.99412</v>
       </c>
       <c r="H24">
-        <v>217.039795</v>
+        <v>266.98236</v>
       </c>
       <c r="I24">
-        <v>0.2401781740848285</v>
+        <v>0.24166542440621</v>
       </c>
       <c r="J24">
-        <v>0.2542423201304522</v>
+        <v>0.2625809944389785</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.4684373333333333</v>
+        <v>0.5028976666666667</v>
       </c>
       <c r="N24">
-        <v>1.405312</v>
+        <v>1.508693</v>
       </c>
       <c r="O24">
-        <v>0.1012241294712764</v>
+        <v>0.1672304406703836</v>
       </c>
       <c r="P24">
-        <v>0.1174853746462323</v>
+        <v>0.1747762634498819</v>
       </c>
       <c r="Q24">
-        <v>33.88984759900445</v>
+        <v>44.75493529505334</v>
       </c>
       <c r="R24">
-        <v>305.00862839104</v>
+        <v>402.7944176554799</v>
       </c>
       <c r="S24">
-        <v>0.02431182658973745</v>
+        <v>0.04041381541824578</v>
       </c>
       <c r="T24">
-        <v>0.0298697542314535</v>
+        <v>0.04589292506099888</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>72.34659833333335</v>
+        <v>88.99412</v>
       </c>
       <c r="H25">
-        <v>217.039795</v>
+        <v>266.98236</v>
       </c>
       <c r="I25">
-        <v>0.2401781740848285</v>
+        <v>0.24166542440621</v>
       </c>
       <c r="J25">
-        <v>0.2542423201304522</v>
+        <v>0.2625809944389785</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.921581</v>
+        <v>0.389502</v>
       </c>
       <c r="N25">
-        <v>3.843162</v>
+        <v>0.779004</v>
       </c>
       <c r="O25">
-        <v>0.4152324123046232</v>
+        <v>0.1295225558188361</v>
       </c>
       <c r="P25">
-        <v>0.3212918749688065</v>
+        <v>0.09024460797028409</v>
       </c>
       <c r="Q25">
-        <v>139.019848771965</v>
+        <v>34.66338772824</v>
       </c>
       <c r="R25">
-        <v>834.1190926317902</v>
+        <v>207.98032636944</v>
       </c>
       <c r="S25">
-        <v>0.09972976260816305</v>
+        <v>0.03130112342213605</v>
       </c>
       <c r="T25">
-        <v>0.08168599173113252</v>
+        <v>0.02369651890359296</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>72.34659833333335</v>
+        <v>88.99412</v>
       </c>
       <c r="H26">
-        <v>217.039795</v>
+        <v>266.98236</v>
       </c>
       <c r="I26">
-        <v>0.2401781740848285</v>
+        <v>0.24166542440621</v>
       </c>
       <c r="J26">
-        <v>0.2542423201304522</v>
+        <v>0.2625809944389785</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.268169</v>
+        <v>0.5211003333333333</v>
       </c>
       <c r="N26">
-        <v>0.804507</v>
+        <v>1.563301</v>
       </c>
       <c r="O26">
-        <v>0.05794835647069703</v>
+        <v>0.1732834414492885</v>
       </c>
       <c r="P26">
-        <v>0.06725752452161254</v>
+        <v>0.1811023895699548</v>
       </c>
       <c r="Q26">
-        <v>19.40111492845167</v>
+        <v>46.37486559670666</v>
       </c>
       <c r="R26">
-        <v>174.610034356065</v>
+        <v>417.3737903703599</v>
       </c>
       <c r="S26">
-        <v>0.01391793044834877</v>
+        <v>0.04187661642041093</v>
       </c>
       <c r="T26">
-        <v>0.01709970908060556</v>
+        <v>0.04755404554855402</v>
       </c>
     </row>
   </sheetData>
